--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.011520.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.011520.xlsx_with_dialog_acts.xlsx
@@ -1479,12 +1479,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2155,12 +2155,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2197,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2365,12 +2365,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2533,12 +2533,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2575,12 +2575,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4339,12 +4339,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4883,12 +4883,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4925,12 +4925,12 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
